--- a/Analysis FCS and rCSI/ts_fcs.xlsx
+++ b/Analysis FCS and rCSI/ts_fcs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Abyan</t>
   </si>
@@ -78,11 +78,17 @@
   <si>
     <t>Taizz</t>
   </si>
+  <si>
+    <t>Datetime</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -135,9 +141,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -434,3259 +443,3409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U50"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2">
+    <row r="2" spans="1:22">
+      <c r="A2" s="2">
+        <v>42277</v>
+      </c>
+      <c r="B2">
         <v>34.1</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>57.42999999999999</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>21.22</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>32.76</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>32.28</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>37.97</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>18</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>34.38</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>46.82</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>51.76000000000001</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>27.81</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>52.04</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>48.09999999999999</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>41.31</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>61.71</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>62.84</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>46.23</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>38.25</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>33.43</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>35.22</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>55.37</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3">
+    <row r="3" spans="1:22">
+      <c r="A3" s="2">
+        <v>42308</v>
+      </c>
+      <c r="B3">
         <v>40.145</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>54.33</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>38.02</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>46.39</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>37.67</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>49.74</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>25</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>34.56</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>45.05</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>58.15</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>27.61</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>54.73</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>46.12</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>37.69</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>49.25</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>60.59</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>44.81142857142857</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>40.23999999999999</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>36.76</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>42.42</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>57.59999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
-      <c r="A4">
+    <row r="4" spans="1:22">
+      <c r="A4" s="2">
+        <v>42338</v>
+      </c>
+      <c r="B4">
         <v>46.19</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>56.44</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>27.95</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>52.56</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>32.65</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>56.73999999999999</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>35.56</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>39.38</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>58.51000000000001</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>55.58</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>27.78</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>51.95</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>51.04</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>30.62</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>45.39</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>65.15000000000001</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>43.39285714285714</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>29.66</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>35.96</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>42.41</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>59.83</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5">
+    <row r="5" spans="1:22">
+      <c r="A5" s="2">
+        <v>42369</v>
+      </c>
+      <c r="B5">
         <v>36.11</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>53.04</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>30.6</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>54.37</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>25.54</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>58.22</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>24.82</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>34.31</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>53.84</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>55.84</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>53.04000000000001</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>43.49</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>47.02</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>50.17</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>47.12</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>67.28</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>41.97428571428571</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>50.51000000000001</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>42.51000000000001</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>51</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>55.53</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6">
+    <row r="6" spans="1:22">
+      <c r="A6" s="2">
+        <v>42400</v>
+      </c>
+      <c r="B6">
         <v>43.44</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>50.44</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>26.24</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>55.33</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>32.19</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>55.17</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>19.78</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>29.67</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>46.88</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>49.89</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>31.3</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>52.09999999999999</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>51.67</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>48.03</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>45.62</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>64.38</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>40.55571428571428</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>52.91</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>38.82</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>57.95</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>62.71</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
-      <c r="A7">
+    <row r="7" spans="1:22">
+      <c r="A7" s="2">
+        <v>42429</v>
+      </c>
+      <c r="B7">
         <v>47.12</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>60.54000000000001</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>28.68</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>56.44</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>32.54</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>58.06</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>15.67</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>40.53</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>43.57</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>49.73999999999999</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>60.83</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>55.23</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>47.13</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>61.9</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>41.54</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>71.12</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>39.13714285714286</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>43.64</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>41.46</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>59.18000000000001</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>60.16</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8">
+    <row r="8" spans="1:22">
+      <c r="A8" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B8">
         <v>65.02000000000001</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>64.05</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>35.21</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>61.2</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>23.9</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>60.38</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>10.28</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>45.45</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>62.78999999999999</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>65.12</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>50.8</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>67.25999999999999</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>58.27</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>56.98</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>49.17</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>67.23999999999999</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>37.71857142857142</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>53.84</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>45.98</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>60.52</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>63.69</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
-      <c r="A9">
+    <row r="9" spans="1:22">
+      <c r="A9" s="2">
+        <v>42490</v>
+      </c>
+      <c r="B9">
         <v>44.97</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>66.25</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>36.94</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>56.44</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>30.73</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>52.72</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>7.35</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>42.08</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>53.79</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>51.67</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>22.5</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>58.43</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>60.55</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>42.1</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>58.11</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>75.93000000000001</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>36.3</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>51.34</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>38.35</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>54.97</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>59.38</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
-      <c r="A10">
+    <row r="10" spans="1:22">
+      <c r="A10" s="2">
+        <v>42521</v>
+      </c>
+      <c r="B10">
         <v>45.44</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>63.81</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>42.7</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>52.29</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>19.59</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>70.73999999999999</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>13.95</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>38.85</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>59.25</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>46.84</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>27.2</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>53.93000000000001</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>50.86</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>43.32</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>64.7</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>53.59999999999999</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>34.94</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>55.77</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>38.36</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>54.18</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>56.84999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
-      <c r="A11">
+    <row r="11" spans="1:22">
+      <c r="A11" s="2">
+        <v>42551</v>
+      </c>
+      <c r="B11">
         <v>41.59999999999999</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>65.84999999999999</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>30.62</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>50.54</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>39.3</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>58.5</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>16.4</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>41.87</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>43.21</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>52.3</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>31.14</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>57.76000000000001</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>54.23</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>60.18000000000001</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>66.37</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>65.73999999999999</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>39.44</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>51.24</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>37.6</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>53.07</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
-      <c r="A12">
+    <row r="12" spans="1:22">
+      <c r="A12" s="2">
+        <v>42582</v>
+      </c>
+      <c r="B12">
         <v>40.16</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>50.85</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>22.26</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>43.8</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>40.53</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>41.26000000000001</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>10.42</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>41.06</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>28.03</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>46.3</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>26.18</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>45.16</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>47.33</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>49.76000000000001</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>37.59</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>60.98999999999999</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>25.43</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>43.62</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>34.19</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>44.26000000000001</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>53.71</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
-      <c r="A13">
+    <row r="13" spans="1:22">
+      <c r="A13" s="2">
+        <v>42613</v>
+      </c>
+      <c r="B13">
         <v>40.98</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>58.03</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>17.66</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>52.17</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>34.76000000000001</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>50.69</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>23.61</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>38.34</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>50.59999999999999</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>50.06</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>25.63</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>56.26000000000001</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>61.34</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>53.1</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>45.09</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>57.84</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>32.65000000000001</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>54.04</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>43.42</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>45.93</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>59.09</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
-      <c r="A14">
+    <row r="14" spans="1:22">
+      <c r="A14" s="2">
+        <v>42643</v>
+      </c>
+      <c r="B14">
         <v>47.43</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>53.78</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>28.58</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>57.48</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>38.12</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>57.78</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>24.61</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>36.3</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>49.34</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>39.79</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>32.23999999999999</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>53.59999999999999</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>50.81</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>54.67</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>67.16</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>59.17</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>41.49</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>43.54</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>45.43</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>50.92</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>57.45</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
-      <c r="A15">
+    <row r="15" spans="1:22">
+      <c r="A15" s="2">
+        <v>42674</v>
+      </c>
+      <c r="B15">
         <v>45.48999999999999</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>62.46</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>31.45</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>50.38</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>48.21</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>72.05</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>18.65</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>48.33</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>50.81999999999999</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>58.71000000000001</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>29.05</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>53.46</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>59.38</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>62.73999999999999</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>54.94</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>65.48999999999999</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>36.59</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>63.4</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>48.55</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>53.93</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>53.14</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
-      <c r="A16">
+    <row r="16" spans="1:22">
+      <c r="A16" s="2">
+        <v>42704</v>
+      </c>
+      <c r="B16">
         <v>63.22</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>66.12</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>27.82</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>65.44</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>50.79</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>65.04000000000001</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>18.17</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>48.69</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>57.73999999999999</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>63.12</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>44.38</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>64.44</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>62.78</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>67.59</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>65.13</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>77.21000000000001</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>49.46</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>63.11</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>57.17</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>58.34999999999999</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>63.2</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
-      <c r="A17">
+    <row r="17" spans="1:22">
+      <c r="A17" s="2">
+        <v>42735</v>
+      </c>
+      <c r="B17">
         <v>43.8</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>64.51000000000001</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>32.57</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>68.05</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>46.67</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>63.24</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>24.06</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>40.58</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>50.54</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>48.64</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>29.84</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>62.29</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>53.34</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>63.03999999999999</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>56.43</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>72.55</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>39.45999999999999</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>55.77</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>58.4</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>51.45</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>66.41</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
-      <c r="A18">
+    <row r="18" spans="1:22">
+      <c r="A18" s="2">
+        <v>42766</v>
+      </c>
+      <c r="B18">
         <v>43.22</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>75.8</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>32.33</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>60.75</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>43.72</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>65.78</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>20.33</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>51.58</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>41.33</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>52.46</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>33.28</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>58.22</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>63.32</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>62.13</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>59.75</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>70.02</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>45.31</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>44.83</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>49.87</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>47.91</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>65.2</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
-      <c r="A19">
+    <row r="19" spans="1:22">
+      <c r="A19" s="2">
+        <v>42794</v>
+      </c>
+      <c r="B19">
         <v>47.62</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>59.96</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>25.44</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>61.8</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>37.26</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>74.46000000000001</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>30.11</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>36.54</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>42.95</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>58.79</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>33.08</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>54.52</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>52.94</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>67.59999999999999</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>50.97</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>63.16</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>39.87</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>48.91</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>47.96</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>52.1</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>62.38</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
-      <c r="A20">
-        <v>65.86</v>
+    <row r="20" spans="1:22">
+      <c r="A20" s="2">
+        <v>42825</v>
       </c>
       <c r="B20">
         <v>65.86</v>
       </c>
       <c r="C20">
+        <v>65.86</v>
+      </c>
+      <c r="D20">
         <v>26.71</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>63.83</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>46.2</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>50</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>28.13</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>47.88</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>52.49</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>48.65</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>31.71</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>59.04</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>54.64</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>69.45</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>59.63</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>63.49</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>42.37</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>50.83</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>47.82</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>51.12</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>64.16</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
-      <c r="A21">
+    <row r="21" spans="1:22">
+      <c r="A21" s="2">
+        <v>42855</v>
+      </c>
+      <c r="B21">
         <v>50.81</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>64.03999999999999</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>33.94</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>68.84</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>46.53</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>61.48</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>31.96</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>38.61</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>61.3</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>47.18</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>37.95</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>69.12</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>62.8</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>60.05</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>68.2</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>59.39</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>42.67</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>48.23999999999999</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>43.33</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>46.09</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>64.23</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
-      <c r="A22">
+    <row r="22" spans="1:22">
+      <c r="A22" s="2">
+        <v>42886</v>
+      </c>
+      <c r="B22">
         <v>56.11</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>57.72</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>36.17</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>60.07</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>44.22</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>73.61</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>17.74</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>53.41</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>64.31</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>59.43000000000001</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>25.89</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>71.11</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>62.42</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>65.21000000000001</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>63.56</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>60.41</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>41.92</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>63.9</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>48.14</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>54.13</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>58.84</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
-      <c r="A23">
+    <row r="23" spans="1:22">
+      <c r="A23" s="2">
+        <v>42916</v>
+      </c>
+      <c r="B23">
         <v>52.61499999999999</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>56.175</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>32.75</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>59.775</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>45.625</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>71.34</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>19.335</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>44.34</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>67.84</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>58.57000000000001</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>30.36999999999999</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>66.145</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>66.56</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>63.74000000000001</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>60.61</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>62.255</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>42.13500000000001</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>56.775</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>42.49</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>48.155</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>61.75</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
-      <c r="A24">
+    <row r="24" spans="1:22">
+      <c r="A24" s="2">
+        <v>42947</v>
+      </c>
+      <c r="B24">
         <v>49.12</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>54.63</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>29.33</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>59.48</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>47.03</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>69.06999999999999</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>20.93</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>35.27</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>71.37</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>57.71</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>34.84999999999999</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>61.18</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>70.7</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>62.27</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>57.66</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>64.09999999999999</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>42.35</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>49.65</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>36.84</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>42.18</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>64.66</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
-      <c r="A25">
+    <row r="25" spans="1:22">
+      <c r="A25" s="2">
+        <v>42978</v>
+      </c>
+      <c r="B25">
         <v>48.45999999999999</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>65.49000000000001</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>16.26</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>64.02</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>35.64</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>60.77</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>24.07</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>35.58</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>57.66</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>59.55</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>25.14</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>58.38</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>59.92999999999999</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>67.84</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>50.3</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>65.92</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>39.86</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>49.75</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>39.06</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>51.93</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>57.84</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
-      <c r="A26">
+    <row r="26" spans="1:22">
+      <c r="A26" s="2">
+        <v>43008</v>
+      </c>
+      <c r="B26">
         <v>54.56</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>46.33</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>14.61</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>47</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>34.07</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>56.55</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>10.24</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>38.09</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>50.19</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>54.1</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>15.16</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>47.88</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>60.09</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>58.25</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>51.82</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>64.92999999999999</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>37.37</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>46.33</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>42.11</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>48.49</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>52.7</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
-      <c r="A27">
+    <row r="27" spans="1:22">
+      <c r="A27" s="2">
+        <v>43039</v>
+      </c>
+      <c r="B27">
         <v>57.02</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>60.81</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>26.22</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>59.86</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>39.25</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>61.41</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>15.24</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>35.55</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>57.63</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>57.9</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>32.76</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>60.54</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>62.07000000000001</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>59.15000000000001</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>57.2</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>63.94</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>34.99</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>52.48999999999999</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>43.54</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>40.29</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>67.62</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
-      <c r="A28">
+    <row r="28" spans="1:22">
+      <c r="A28" s="2">
+        <v>43069</v>
+      </c>
+      <c r="B28">
         <v>42.83</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>67.98999999999999</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>17.98</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>74.09</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>35.95</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>64.21000000000001</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>24.16</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>43.26</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>66.23</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>49.86</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>19.64</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>48.38</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>61.85</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>62.81</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>51.85</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>63.03</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>49.52</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>55.64</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>39.81</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>37.73</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>64.64</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
-      <c r="A29">
+    <row r="29" spans="1:22">
+      <c r="A29" s="2">
+        <v>43100</v>
+      </c>
+      <c r="B29">
         <v>55.73999999999999</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>69.17</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>23.67</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>55.36</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>46.02</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>60.1</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>22.14</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>45.23999999999999</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>59.09999999999999</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>48.72</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>32.43</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>62.37</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>65.21000000000001</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>61.76000000000001</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>60.58</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>72.69999999999999</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>49.26000000000001</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>62.39</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>41.69</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>34.42</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>69.62</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
-      <c r="A30">
+    <row r="30" spans="1:22">
+      <c r="A30" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B30">
         <v>62.3</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>58.72</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>27.85</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>55</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>46.01000000000001</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>56.26000000000001</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>8.94</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>45.94</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>57.75</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>58.02</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>13.62</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>59.13</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>65.11</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>63.53</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>45.23999999999999</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>60.63</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>46.51</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>57.02</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>46.94</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>53.69</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>60.8</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
-      <c r="A31">
+    <row r="31" spans="1:22">
+      <c r="A31" s="2">
+        <v>43159</v>
+      </c>
+      <c r="B31">
         <v>51.54</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>72.33</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>31.02</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>56.29</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>32.47</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>57.12</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>29</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>48.37</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>52.11</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>54.7</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>31.65</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>64.03</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>52.11</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>61.48</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>59.17</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>74.67</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>37.95</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>48.35</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>43.16</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>51.25</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>55.42</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
-      <c r="A32">
+    <row r="32" spans="1:22">
+      <c r="A32" s="2">
+        <v>43190</v>
+      </c>
+      <c r="B32">
         <v>46.52</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>62.95999999999999</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>25.89</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>51.09</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>25.4</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>53.95</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>11.36</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>41.55</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>57.20999999999999</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>44.94</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>18.37</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>43.42</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>49.5</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>52.2</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>48.09999999999999</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>70.89</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>29.78</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>49.34999999999999</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>40.67</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>38.94</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>57.08</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
-      <c r="A33">
+    <row r="33" spans="1:22">
+      <c r="A33" s="2">
+        <v>43220</v>
+      </c>
+      <c r="B33">
         <v>44.55</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>41.38</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>16.55</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>43.22</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>10.21</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>26.26</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>3.91</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>23.94</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>24.81</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>23.54</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>10.48</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>27.49</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>38.61</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>36.08</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>33.51</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>57.03</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>19.11</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>36.03</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>24.22</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>25</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>40.71</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
-      <c r="A34">
+    <row r="34" spans="1:22">
+      <c r="A34" s="2">
+        <v>43251</v>
+      </c>
+      <c r="B34">
         <v>30.29</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>32.15</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>6.98</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>29.97</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>10.2</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>23.13</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>1.23</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>20.54</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>23.14</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>28.51</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>5.12</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>24.87</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>29.63</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>29.89</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>19.92</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>46.25</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>12.12</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>21.03</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>20.44</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>28.2</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>29.07</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
-      <c r="A35">
+    <row r="35" spans="1:22">
+      <c r="A35" s="2">
+        <v>43281</v>
+      </c>
+      <c r="B35">
         <v>32.585</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>36.065</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>10.61</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>36.345</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>15.5</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>32.63</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>3.695</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>23.385</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>29.82</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>31.005</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>10.86</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>29.115</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>33.925</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>33.245</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>36.1</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>49.55</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>20.545</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>23.03</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>19</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>25.39</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>30.555</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
-      <c r="A36">
+    <row r="36" spans="1:22">
+      <c r="A36" s="2">
+        <v>43312</v>
+      </c>
+      <c r="B36">
         <v>34.88</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>39.98</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>14.24</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>42.72</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>20.8</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>42.13</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>6.16</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>26.23</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>36.5</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>33.5</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>16.6</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>33.36</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>38.22</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>36.6</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>52.28</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>52.84999999999999</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>28.97</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>25.03</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>17.56</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>22.58</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>32.04</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
-      <c r="A37">
+    <row r="37" spans="1:22">
+      <c r="A37" s="2">
+        <v>43343</v>
+      </c>
+      <c r="B37">
         <v>35.73</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>39.84</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>26.63</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>37.4</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>22.04</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>38.16</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>10.56</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>25.04</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>45.25</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>23.36</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>28.74</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>29.41</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>33.8</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>45.38</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>40.58</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>48.61</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>16.92</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>32.53</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>20.05</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>29.09</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>34.12</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
-      <c r="A38">
+    <row r="38" spans="1:22">
+      <c r="A38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="B38">
         <v>54.95</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>46.32</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>22.7</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>50.84</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>25.22</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>41.51000000000001</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>13.39</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>27.08</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>32.97</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>36.43</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>60.58</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>40.52</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>41.99</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>46.99</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>41.55</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>56.06</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>25.2</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>32.99</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>24.44</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>40.39</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>37.58</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
-      <c r="A39">
+    <row r="39" spans="1:22">
+      <c r="A39" s="2">
+        <v>43404</v>
+      </c>
+      <c r="B39">
         <v>62.13</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>52.25</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>16.98</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>54.86</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>30.14</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>53.96</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>16.22</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>36.37</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>50.23</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>41.85</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>39.78</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>44.01</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>52.34</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>53.7</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>47.64</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>59.69</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>30.23</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>32.72</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>30.61</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>31.84</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>51.76</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
-      <c r="A40">
+    <row r="40" spans="1:22">
+      <c r="A40" s="2">
+        <v>43434</v>
+      </c>
+      <c r="B40">
         <v>49</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>59.12</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>23.39</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>49.7</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>33.77</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>50.86</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>11.49</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>33.98</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>42.18</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>41.99</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>23.37</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>42.41</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>48.77</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>47.94</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>54.64</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>49.57</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>19.31</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>38.75</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>44.9</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>39.2</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>54.31</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
-      <c r="A41">
+    <row r="41" spans="1:22">
+      <c r="A41" s="2">
+        <v>43465</v>
+      </c>
+      <c r="B41">
         <v>45.62</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>55.62</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>12.1</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>43.61</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>34.38</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>29.86</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>13.9</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>28.64</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>39.06</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>40.48</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>22.46</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>29.83</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>43.19</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>54.12</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>43.17</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>54.57</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>26.05</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>33.46</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>28.14</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>26.39</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>37.05</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
-      <c r="A42">
+    <row r="42" spans="1:22">
+      <c r="A42" s="2">
+        <v>43496</v>
+      </c>
+      <c r="B42">
         <v>40.76000000000001</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>50.25</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>17.94</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>47.26</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>29.16</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>38.36</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>17.59</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>21.72</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>32.54</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>35.9</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>30.59</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>32.47</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>35.86</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>60.27</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>53.59</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>46.38</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>23.89</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>30.21</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>39.51</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>38.73999999999999</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>42.64</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
-      <c r="A43">
+    <row r="43" spans="1:22">
+      <c r="A43" s="2">
+        <v>43524</v>
+      </c>
+      <c r="B43">
         <v>42.95500000000001</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>52.455</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>18.78</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>44.05</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>29.165</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>46.595</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>13.605</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>27.895</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>33.09</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>35.19</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>27.78</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>35.085</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>36.465</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>51.63500000000001</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>54.01000000000001</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>50.405</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>27.42</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>30.25</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>35.155</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>37.83</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>38.645</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
-      <c r="A44">
+    <row r="44" spans="1:22">
+      <c r="A44" s="2">
+        <v>43555</v>
+      </c>
+      <c r="B44">
         <v>45.15</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>54.66</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>19.62</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>40.84</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>29.17</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>54.83</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>9.620000000000001</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>34.07</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>33.64</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>34.48</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>24.97</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>37.7</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>37.07</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>43</v>
-      </c>
-      <c r="O44">
-        <v>54.43</v>
       </c>
       <c r="P44">
         <v>54.43</v>
       </c>
       <c r="Q44">
+        <v>54.43</v>
+      </c>
+      <c r="R44">
         <v>30.95</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>30.29</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>30.8</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>36.92</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>34.65</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
-      <c r="A45">
+    <row r="45" spans="1:22">
+      <c r="A45" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B45">
         <v>48.13</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>58.01</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>20.28</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>60.41</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>52.84</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>51.23</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>14.7</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>20.25</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>23.52</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>38.93</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>28.03</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>39.07</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>44.62</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>54.39</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>33.66</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>61.09</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>29.45</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>40.73</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>29.23</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>34.3</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>39.2</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
-      <c r="A46">
+    <row r="46" spans="1:22">
+      <c r="A46" s="2">
+        <v>43616</v>
+      </c>
+      <c r="B46">
         <v>45.25</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>58.38500000000001</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>24.895</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>56.165</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>45.22</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>46.305</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>12.985</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>26.61</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>34.645</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>32.2</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>34.195</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>42.465</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>43.08000000000001</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>44.715</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>39.555</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>54.625</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>21.96</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>34.16</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>30.515</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>34.575</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>40.375</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
-      <c r="A47">
+    <row r="47" spans="1:22">
+      <c r="A47" s="2">
+        <v>43646</v>
+      </c>
+      <c r="B47">
         <v>42.37</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>58.76000000000001</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>29.51</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>51.92</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>37.6</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>41.38</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>11.27</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>32.97</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>45.77</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>25.47</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>40.36</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>45.86</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>41.54000000000001</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>35.04</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>45.45</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>48.16</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>14.47</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>27.59</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>31.8</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>34.85</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>41.55</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
-      <c r="A48">
+    <row r="48" spans="1:22">
+      <c r="A48" s="2">
+        <v>43677</v>
+      </c>
+      <c r="B48">
         <v>33.78</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>57.6</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>21.24</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>42.66</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>30.05</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>53.8</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>16.87</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>25.64</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>46.44</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>39.25</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>21.82</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>35.98</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>41.26</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>47.58</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>55.21</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>44.65000000000001</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>33.68</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>39.64</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>25.05</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>39.39</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>42.03</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
-      <c r="A49">
+    <row r="49" spans="1:22">
+      <c r="A49" s="2">
+        <v>43708</v>
+      </c>
+      <c r="B49">
         <v>45.02</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>43.16</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>25.37</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>39.67</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>20.66</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>50.3</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>10.12</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>26.44</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>34.78</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>42.8</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>31.13</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>35.78</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>45.7</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>47.47</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>33.71</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>45.54</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>31.01</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>31.5</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>25.77</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>43.11</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>32.92</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
-      <c r="A50">
+    <row r="50" spans="1:22">
+      <c r="A50" s="2">
+        <v>43738</v>
+      </c>
+      <c r="B50">
         <v>35.85</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>45.43</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>28.92</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>46.15</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>30.97</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>51.31</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>15.28</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>34.58</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>33.21</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>40.5</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>30.95</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>38.73</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>48.89</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>46.17</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>39.13</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>54.87</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>40.56</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>40.76000000000001</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>32.1</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>44.90000000000001</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>40.31</v>
       </c>
     </row>
